--- a/data/trans_orig/IP1008-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1008-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B5EA14D-C700-495B-A356-70A445582B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A73548EB-F972-4CC6-882E-7BB96331A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CB0A467-730C-4295-97C8-C1CE5C1AF94E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B99A3665-473D-4AAE-80F7-F2B944402662}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="171">
   <si>
     <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -103,13 +103,13 @@
     <t>1,56%</t>
   </si>
   <si>
-    <t>5,45%</t>
+    <t>4,71%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>4,34%</t>
+    <t>4,9%</t>
   </si>
   <si>
     <t>1,49%</t>
@@ -118,25 +118,25 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,29%</t>
+    <t>3,38%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>94,55%</t>
+    <t>95,29%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>95,66%</t>
+    <t>95,1%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>96,71%</t>
+    <t>96,62%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -154,7 +154,7 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -163,139 +163,139 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>97,41%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -304,235 +304,253 @@
     <t>0,12%</t>
   </si>
   <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>1,64%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>98,36%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>99,0%</t>
   </si>
 </sst>
 </file>
@@ -944,7 +962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0DA1B-AE29-4AF9-805B-F8123BE5DA86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F339357A-D4F6-42B6-A4CA-EA5543DFC6BC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1563,7 +1581,7 @@
         <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,10 +1596,10 @@
         <v>156780</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -1593,10 +1611,10 @@
         <v>173539</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -1608,13 +1626,13 @@
         <v>330320</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,10 +1703,10 @@
         <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -1697,13 +1715,13 @@
         <v>3220</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1712,13 +1730,13 @@
         <v>7321</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,13 +1751,13 @@
         <v>718599</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>1013</v>
@@ -1748,13 +1766,13 @@
         <v>677801</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>2093</v>
@@ -1763,13 +1781,13 @@
         <v>1396400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,7 +1843,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8320469B-790E-4FE0-BC97-C28AD5C4BB72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0169953F-A4F3-4D1F-8B37-2CFE3C39105D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1862,7 +1880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2118,13 +2136,13 @@
         <v>1299</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2148,13 +2166,13 @@
         <v>1299</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,10 +2187,10 @@
         <v>82238</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2199,7 +2217,7 @@
         <v>174126</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>85</v>
@@ -2586,10 +2604,10 @@
         <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2598,13 +2616,13 @@
         <v>3498</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2616,10 +2634,10 @@
         <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,10 +2655,10 @@
         <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>1013</v>
@@ -2649,13 +2667,13 @@
         <v>703430</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>2074</v>
@@ -2667,7 +2685,7 @@
         <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>123</v>
@@ -2726,7 +2744,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2746,7 +2764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0EB58-158A-4712-B3AB-11569B93D3F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41985EC1-8199-447C-A71B-29C82771E83F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3037,13 +3055,13 @@
         <v>1579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3079,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -3073,10 +3091,10 @@
         <v>57799</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -3088,10 +3106,10 @@
         <v>126414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -3168,7 +3186,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3177,13 +3195,13 @@
         <v>3400</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3192,13 +3210,13 @@
         <v>3988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,7 +3234,7 @@
         <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3228,13 +3246,13 @@
         <v>468890</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
         <v>1403</v>
@@ -3243,13 +3261,13 @@
         <v>957037</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3335,13 @@
         <v>1361</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3332,13 +3350,13 @@
         <v>1255</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3347,13 +3365,13 @@
         <v>2616</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,10 +3386,10 @@
         <v>186134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -3383,10 +3401,10 @@
         <v>171448</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -3398,13 +3416,13 @@
         <v>357581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3490,13 @@
         <v>1949</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3487,13 +3505,13 @@
         <v>6235</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -3502,13 +3520,13 @@
         <v>8183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,10 +3541,10 @@
         <v>742895</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>48</v>
@@ -3538,13 +3556,13 @@
         <v>698136</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>2114</v>
@@ -3553,13 +3571,13 @@
         <v>1441032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,7 +3633,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1008-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1008-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A73548EB-F972-4CC6-882E-7BB96331A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A6A46E-0B8E-4FB4-A4F0-C1B8E0921CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B99A3665-473D-4AAE-80F7-F2B944402662}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{8C077023-6FDC-41BA-A592-041A2202402A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="169">
   <si>
     <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,490 +67,484 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>1,43%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,83%</t>
+    <t>1,68%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>99,23%</t>
   </si>
   <si>
     <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
   </si>
 </sst>
 </file>
@@ -962,8 +956,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F339357A-D4F6-42B6-A4CA-EA5543DFC6BC}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED420076-7DAB-4943-89FF-7D487F04D991}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1080,10 +1074,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1296</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1095,81 +1089,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1353</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>89571</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="I5" s="7">
+        <v>85492</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>175064</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1178,52 +1176,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1232,97 +1232,97 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1353</v>
+        <v>1398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1296</v>
+        <v>1390</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>2648</v>
+        <v>2788</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>128</v>
+        <v>626</v>
       </c>
       <c r="D8" s="7">
-        <v>85491</v>
+        <v>414689</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>134</v>
+        <v>717</v>
       </c>
       <c r="I8" s="7">
-        <v>89571</v>
+        <v>475601</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>262</v>
+        <v>1343</v>
       </c>
       <c r="N8" s="7">
-        <v>175064</v>
+        <v>890290</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1331,153 +1331,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1390</v>
+        <v>527</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1398</v>
+        <v>1358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2788</v>
+        <v>1885</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>717</v>
+        <v>253</v>
       </c>
       <c r="D11" s="7">
-        <v>475601</v>
+        <v>173539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>626</v>
+        <v>234</v>
       </c>
       <c r="I11" s="7">
-        <v>414689</v>
+        <v>156780</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
-        <v>1343</v>
+        <v>487</v>
       </c>
       <c r="N11" s="7">
-        <v>890290</v>
+        <v>330320</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1486,153 +1486,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>1358</v>
+        <v>3220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4101</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="7">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>527</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
       <c r="N13" s="7">
-        <v>1885</v>
+        <v>7321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>234</v>
+        <v>1013</v>
       </c>
       <c r="D14" s="7">
-        <v>156780</v>
+        <v>677801</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1079</v>
+      </c>
+      <c r="I14" s="7">
+        <v>717873</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="7">
-        <v>253</v>
-      </c>
-      <c r="I14" s="7">
-        <v>173539</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
-        <v>487</v>
+        <v>2092</v>
       </c>
       <c r="N14" s="7">
-        <v>330320</v>
+        <v>1395674</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,216 +1641,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7">
-        <v>4101</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3220</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="7">
-        <v>11</v>
-      </c>
-      <c r="N16" s="7">
-        <v>7321</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1080</v>
-      </c>
-      <c r="D17" s="7">
-        <v>718599</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1013</v>
-      </c>
-      <c r="I17" s="7">
-        <v>677801</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="A16" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2093</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1396400</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1863,8 +1707,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0169953F-A4F3-4D1F-8B37-2CFE3C39105D}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C98515-588E-4E78-BA81-D427C980F845}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1880,7 +1724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1987,90 +1831,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1299</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1299</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="I5" s="7">
+        <v>82238</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>174126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,151 +1927,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1299</v>
+        <v>2055</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>1299</v>
+        <v>4024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>115</v>
+        <v>648</v>
       </c>
       <c r="D8" s="7">
-        <v>82238</v>
+        <v>447645</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="H8" s="7">
-        <v>133</v>
+        <v>702</v>
       </c>
       <c r="I8" s="7">
-        <v>91889</v>
+        <v>490436</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="M8" s="7">
-        <v>248</v>
+        <v>1350</v>
       </c>
       <c r="N8" s="7">
-        <v>174126</v>
+        <v>938079</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,153 +2082,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1968</v>
+        <v>1442</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1442</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2055</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="7">
-        <v>6</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4024</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>702</v>
+        <v>232</v>
       </c>
       <c r="D11" s="7">
-        <v>490436</v>
+        <v>163898</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7">
+        <v>243</v>
+      </c>
+      <c r="I11" s="7">
+        <v>171561</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="7">
+        <v>475</v>
+      </c>
+      <c r="N11" s="7">
+        <v>335459</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="7">
-        <v>648</v>
-      </c>
-      <c r="I11" s="7">
-        <v>447645</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1350</v>
-      </c>
-      <c r="N11" s="7">
-        <v>938079</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,153 +2237,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>3498</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>1442</v>
+        <v>3267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>1442</v>
+        <v>6765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>243</v>
+        <v>1013</v>
       </c>
       <c r="D14" s="7">
-        <v>171561</v>
+        <v>703430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
-        <v>232</v>
+        <v>1060</v>
       </c>
       <c r="I14" s="7">
-        <v>163898</v>
+        <v>744234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
-        <v>475</v>
+        <v>2073</v>
       </c>
       <c r="N14" s="7">
-        <v>335459</v>
+        <v>1447664</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,216 +2392,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3267</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3498</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M16" s="7">
-        <v>10</v>
-      </c>
-      <c r="N16" s="7">
-        <v>6765</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1061</v>
-      </c>
-      <c r="D17" s="7">
-        <v>744875</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1013</v>
-      </c>
-      <c r="I17" s="7">
-        <v>703430</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2074</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1448305</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>76</v>
+      <c r="A16" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2764,8 +2458,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41985EC1-8199-447C-A71B-29C82771E83F}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CEA80B-B81F-411F-95A6-9437B8F6527B}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2781,7 +2475,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2882,88 +2576,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1579</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1579</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="D5" s="7">
+        <v>57799</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68614</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="N5" s="7">
+        <v>126414</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,147 +2678,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>588</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1579</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>1579</v>
+        <v>3988</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>709</v>
       </c>
       <c r="D8" s="7">
-        <v>68614</v>
+        <v>468890</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
-        <v>87</v>
+        <v>694</v>
       </c>
       <c r="I8" s="7">
-        <v>57799</v>
+        <v>488147</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>186</v>
+        <v>1403</v>
       </c>
       <c r="N8" s="7">
-        <v>126414</v>
+        <v>957037</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,153 +2833,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>588</v>
+        <v>1255</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>3400</v>
+        <v>1361</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>3988</v>
+        <v>2616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>694</v>
+        <v>256</v>
       </c>
       <c r="D11" s="7">
-        <v>488147</v>
+        <v>171448</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>709</v>
+        <v>269</v>
       </c>
       <c r="I11" s="7">
-        <v>468890</v>
+        <v>186134</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
-        <v>1403</v>
+        <v>525</v>
       </c>
       <c r="N11" s="7">
-        <v>957037</v>
+        <v>357581</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,153 +2988,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>1361</v>
+        <v>6235</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>1255</v>
+        <v>1949</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>2616</v>
+        <v>8183</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>269</v>
+        <v>1052</v>
       </c>
       <c r="D14" s="7">
-        <v>186134</v>
+        <v>698136</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
-        <v>256</v>
+        <v>1062</v>
       </c>
       <c r="I14" s="7">
-        <v>171448</v>
+        <v>742895</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M14" s="7">
-        <v>525</v>
+        <v>2114</v>
       </c>
       <c r="N14" s="7">
-        <v>357581</v>
+        <v>1441032</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,216 +3143,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1949</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6235</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M16" s="7">
-        <v>12</v>
-      </c>
-      <c r="N16" s="7">
-        <v>8183</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1062</v>
-      </c>
-      <c r="D17" s="7">
-        <v>742895</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1052</v>
-      </c>
-      <c r="I17" s="7">
-        <v>698136</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2114</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1441032</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>76</v>
+      <c r="A16" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
